--- a/output_tables/SR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/SR2_results_P_reca_calibrated_21HS.xlsx
@@ -569,11 +569,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>bulk_ec_inv</t>
+          <t>PRP0.6</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.8095000000000001</v>
+        <v>0.4055</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -616,11 +616,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bulk_ec_inv</t>
+          <t>PRP0.6</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.702</v>
+        <v>0.3115</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -694,11 +694,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bulk_ec_inv</t>
+          <t>PRP0.6</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.608</v>
+        <v>0.587</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -710,11 +710,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>bulk_ec_inv</t>
+          <t>PRP0.6</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.652</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>

--- a/output_tables/SR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/SR2_results_P_reca_calibrated_21HS.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -506,7 +506,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -522,7 +522,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -530,7 +530,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -561,7 +561,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -569,15 +569,15 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.4055</v>
+        <v>0.6675</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -616,15 +616,15 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.3115</v>
+        <v>0.552</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -671,7 +671,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -694,7 +694,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K6" t="n">

--- a/output_tables/SR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/SR2_results_P_reca_calibrated_21HS.xlsx
@@ -441,52 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LT</t>
+          <t>BestFeatureLT</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>R2 LT</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LS</t>
+          <t>BestFeatureLS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>R2 LS</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LS2</t>
+          <t>BestFeatureLS2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>R2 LS2</t>
+          <t>LS2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature 10</t>
+          <t>BestFeature10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>R2 10</t>
+          <t>Top_layer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature 50</t>
+          <t>BestFeature50</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>R2 50</t>
+          <t>Bottom_layer</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.6675</v>
+        <v>0.66</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.552</v>
+        <v>0.5265</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -694,11 +694,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRPHQP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.587</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -710,11 +710,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PRPHQP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.5024999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>

--- a/output_tables/SR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/SR2_results_P_reca_calibrated_21HS.xlsx
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.66</v>
+        <v>0.698</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.5265</v>
+        <v>0.587</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0.5934999999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.614</v>
+        <v>0.628</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
